--- a/Jogos_do_Dia/2023-02-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.68</v>
+        <v>3.41</v>
       </c>
       <c r="H2" t="n">
-        <v>4.34</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="N2" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -683,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X2" t="n">
         <v>2.12</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>3.99</v>
       </c>
       <c r="H3" t="n">
-        <v>5.65</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
         <v>1.02</v>
@@ -763,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
@@ -790,10 +790,10 @@
         <v>2.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>2.2</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.35</v>
+        <v>2.04</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -900,10 +900,10 @@
         <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
         <v>1.89</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -983,10 +983,10 @@
         <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1010,10 +1010,10 @@
         <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
         <v>1.62</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="G6" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.18</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N6" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
@@ -1120,10 +1120,10 @@
         <v>1.78</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="X6" t="n">
         <v>1.59</v>
@@ -1135,16 +1135,16 @@
         <v>3.01</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE6" t="n">
         <v>1.55</v>
@@ -1156,7 +1156,7 @@
         <v>2.3</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
         <v>1.08</v>
@@ -1203,10 +1203,10 @@
         <v>2.95</v>
       </c>
       <c r="M7" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O7" t="n">
         <v>1.47</v>
@@ -1230,10 +1230,10 @@
         <v>1.47</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="X7" t="n">
         <v>1.72</v>
@@ -1245,28 +1245,28 @@
         <v>3.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG7" t="n">
         <v>2</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="8">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1340,7 +1340,7 @@
         <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
@@ -1402,31 +1402,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="G9" t="n">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="N9" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1441,19 +1441,19 @@
         <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="X9" t="n">
         <v>1.43</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="N10" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O10" t="n">
         <v>1.38</v>
@@ -1560,10 +1560,10 @@
         <v>1.61</v>
       </c>
       <c r="V10" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X10" t="n">
         <v>1.37</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>2.41</v>
       </c>
       <c r="I11" t="n">
         <v>1.06</v>
@@ -1643,10 +1643,10 @@
         <v>3.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="N11" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
@@ -1670,10 +1670,10 @@
         <v>1.41</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X11" t="n">
         <v>1.69</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
@@ -1780,10 +1780,10 @@
         <v>1.63</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X12" t="n">
         <v>1.51</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I13" t="n">
         <v>1.06</v>
@@ -1863,10 +1863,10 @@
         <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="N13" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="O13" t="n">
         <v>1.4</v>
@@ -1890,10 +1890,10 @@
         <v>1.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>1.82</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.38</v>
+        <v>4.7</v>
       </c>
       <c r="G14" t="n">
-        <v>3.64</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>3.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="N14" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
         <v>1.38</v>
@@ -2000,10 +2000,10 @@
         <v>1.17</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="X14" t="n">
         <v>1.44</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>1.09</v>
@@ -2083,10 +2083,10 @@
         <v>2.38</v>
       </c>
       <c r="M15" t="n">
-        <v>2.66</v>
+        <v>2.45</v>
       </c>
       <c r="N15" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="O15" t="n">
         <v>1.56</v>
@@ -2110,10 +2110,10 @@
         <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W15" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X15" t="n">
         <v>1.35</v>
@@ -2134,19 +2134,19 @@
         <v>2.64</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="16">
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I16" t="n">
         <v>1.02</v>
@@ -2220,10 +2220,10 @@
         <v>1.09</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="X16" t="n">
         <v>1.47</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="G17" t="n">
         <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I17" t="n">
         <v>1.04</v>
@@ -2303,10 +2303,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N17" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="O17" t="n">
         <v>1.37</v>
@@ -2330,10 +2330,10 @@
         <v>1.49</v>
       </c>
       <c r="V17" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
         <v>1.37</v>
@@ -2411,10 +2411,10 @@
         <v>2.65</v>
       </c>
       <c r="M18" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2453,28 +2453,28 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="19">
@@ -2500,13 +2500,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="G19" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="N19" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2548,10 +2548,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="X19" t="n">
         <v>1.68</v>
@@ -2610,13 +2610,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="G20" t="n">
-        <v>3.64</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="I20" t="n">
         <v>1.04</v>
@@ -2631,10 +2631,10 @@
         <v>4.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
         <v>1.31</v>
@@ -2658,10 +2658,10 @@
         <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
         <v>2.12</v>
@@ -2720,13 +2720,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G21" t="n">
         <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
         <v>1.05</v>
@@ -2741,10 +2741,10 @@
         <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -2768,10 +2768,10 @@
         <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
         <v>1.9</v>
@@ -2792,7 +2792,7 @@
         <v>3.14</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE21" t="n">
         <v>1.29</v>
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>4.66</v>
+        <v>4.4</v>
       </c>
       <c r="I22" t="n">
         <v>1.05</v>
@@ -2851,10 +2851,10 @@
         <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="N22" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="O22" t="n">
         <v>1.38</v>
@@ -2878,10 +2878,10 @@
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="X22" t="n">
         <v>1.6</v>
@@ -2940,13 +2940,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="G23" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H23" t="n">
-        <v>4.22</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
         <v>1.06</v>
@@ -2964,7 +2964,7 @@
         <v>1.82</v>
       </c>
       <c r="N23" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O23" t="n">
         <v>1.38</v>
@@ -2988,10 +2988,10 @@
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W23" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="X23" t="n">
         <v>1.76</v>
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
         <v>1.04</v>
@@ -3071,10 +3071,10 @@
         <v>3.8</v>
       </c>
       <c r="M24" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="N24" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="O24" t="n">
         <v>1.37</v>
@@ -3098,10 +3098,10 @@
         <v>1.68</v>
       </c>
       <c r="V24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="X24" t="n">
         <v>1.44</v>
@@ -3122,7 +3122,7 @@
         <v>2.43</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE24" t="n">
         <v>1.29</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I25" t="n">
         <v>1.04</v>
@@ -3181,10 +3181,10 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="N25" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.32</v>
@@ -3208,10 +3208,10 @@
         <v>1.45</v>
       </c>
       <c r="V25" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="X25" t="n">
         <v>1.9</v>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
@@ -3291,10 +3291,10 @@
         <v>2.14</v>
       </c>
       <c r="M26" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="N26" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O26" t="n">
         <v>1.57</v>
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X26" t="n">
         <v>1.59</v>
@@ -3380,13 +3380,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="I27" t="n">
         <v>1.05</v>
@@ -3401,10 +3401,10 @@
         <v>3.82</v>
       </c>
       <c r="M27" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="N27" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="O27" t="n">
         <v>1.34</v>
@@ -3428,10 +3428,10 @@
         <v>1.32</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="X27" t="n">
         <v>1.69</v>
@@ -3443,16 +3443,16 @@
         <v>3.38</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE27" t="n">
         <v>1.57</v>
@@ -3464,7 +3464,7 @@
         <v>2.4</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="28">
@@ -3490,13 +3490,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
         <v>1.09</v>
@@ -3511,10 +3511,10 @@
         <v>2.84</v>
       </c>
       <c r="M28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N28" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -3538,10 +3538,10 @@
         <v>1.6</v>
       </c>
       <c r="V28" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="W28" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
         <v>1.45</v>
@@ -3600,13 +3600,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>1.13</v>
@@ -3624,7 +3624,7 @@
         <v>2.45</v>
       </c>
       <c r="N29" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O29" t="n">
         <v>1.62</v>
@@ -3648,10 +3648,10 @@
         <v>1.52</v>
       </c>
       <c r="V29" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="X29" t="n">
         <v>1.78</v>
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G30" t="n">
         <v>3.2</v>
       </c>
-      <c r="G30" t="n">
-        <v>3</v>
-      </c>
       <c r="H30" t="n">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3731,10 +3731,10 @@
         <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O30" t="n">
         <v>1.44</v>
@@ -3758,7 +3758,7 @@
         <v>1.36</v>
       </c>
       <c r="V30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I31" t="n">
         <v>1.09</v>
@@ -3841,10 +3841,10 @@
         <v>2.83</v>
       </c>
       <c r="M31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O31" t="n">
         <v>1.5</v>
@@ -3868,10 +3868,10 @@
         <v>1.72</v>
       </c>
       <c r="V31" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W31" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="X31" t="n">
         <v>1.56</v>
@@ -3930,13 +3930,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="G32" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="H32" t="n">
-        <v>3.84</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
         <v>1.08</v>
@@ -3954,7 +3954,7 @@
         <v>2.2</v>
       </c>
       <c r="N32" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O32" t="n">
         <v>1.48</v>
@@ -3978,10 +3978,10 @@
         <v>1.82</v>
       </c>
       <c r="V32" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W32" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="X32" t="n">
         <v>1.44</v>
@@ -4040,13 +4040,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H33" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="I33" t="n">
         <v>1.09</v>
@@ -4061,7 +4061,7 @@
         <v>2.89</v>
       </c>
       <c r="M33" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N33" t="n">
         <v>1.57</v>
@@ -4088,10 +4088,10 @@
         <v>1.4</v>
       </c>
       <c r="V33" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X33" t="n">
         <v>1.59</v>
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G34" t="n">
-        <v>4.34</v>
+        <v>4.4</v>
       </c>
       <c r="H34" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
         <v>1.06</v>
@@ -4171,10 +4171,10 @@
         <v>3.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="N34" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="O34" t="n">
         <v>1.37</v>
@@ -4198,10 +4198,10 @@
         <v>2.7</v>
       </c>
       <c r="V34" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X34" t="n">
         <v>1.96</v>
@@ -4260,58 +4260,58 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
         <v>2.25</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="M35" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R35" t="n">
         <v>2</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V35" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="W35" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="X35" t="n">
         <v>1.77</v>
@@ -4323,28 +4323,28 @@
         <v>3.27</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC35" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="36">
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G36" t="n">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="I36" t="n">
         <v>1.06</v>
@@ -4418,10 +4418,10 @@
         <v>1.95</v>
       </c>
       <c r="V36" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W36" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X36" t="n">
         <v>1.68</v>
@@ -4433,28 +4433,28 @@
         <v>2.78</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AE36" t="n">
         <v>2</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="37">
@@ -4480,31 +4480,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="G37" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>4.34</v>
+        <v>3.9</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M37" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="N37" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="O37" t="n">
         <v>1.36</v>
@@ -4519,19 +4519,19 @@
         <v>1.95</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W37" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X37" t="n">
         <v>1.6</v>
@@ -4543,28 +4543,28 @@
         <v>2.84</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="38">
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I38" t="n">
         <v>1.05</v>
@@ -4611,10 +4611,10 @@
         <v>3.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="N38" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O38" t="n">
         <v>1.39</v>
@@ -4638,10 +4638,10 @@
         <v>1.33</v>
       </c>
       <c r="V38" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
         <v>1.59</v>
@@ -4662,7 +4662,7 @@
         <v>1.86</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE38" t="n">
         <v>1.3</v>
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="G39" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I39" t="n">
         <v>1.06</v>
@@ -4721,10 +4721,10 @@
         <v>3.2</v>
       </c>
       <c r="M39" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="N39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O39" t="n">
         <v>1.4</v>
@@ -4748,10 +4748,10 @@
         <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="W39" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
         <v>1.88</v>
@@ -4810,13 +4810,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I40" t="n">
         <v>1.09</v>
@@ -4831,10 +4831,10 @@
         <v>2.82</v>
       </c>
       <c r="M40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N40" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="O40" t="n">
         <v>1.5</v>
@@ -4858,10 +4858,10 @@
         <v>1.5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="W40" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="X40" t="n">
         <v>1.57</v>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="G41" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I41" t="n">
         <v>1.06</v>
@@ -4941,10 +4941,10 @@
         <v>3.3</v>
       </c>
       <c r="M41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.98</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.9</v>
       </c>
       <c r="O41" t="n">
         <v>1.4</v>
@@ -4968,10 +4968,10 @@
         <v>1.85</v>
       </c>
       <c r="V41" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="W41" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="X41" t="n">
         <v>1.62</v>
@@ -4983,28 +4983,28 @@
         <v>3.3</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG41" t="n">
         <v>1.88</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="42">
@@ -5030,13 +5030,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="G42" t="n">
-        <v>4.14</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I42" t="n">
         <v>1.03</v>
@@ -5051,7 +5051,7 @@
         <v>4.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="N42" t="n">
         <v>2.2</v>
@@ -5078,10 +5078,10 @@
         <v>2.15</v>
       </c>
       <c r="V42" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="W42" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="X42" t="n">
         <v>1.8</v>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="G43" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
         <v>1.08</v>
@@ -5161,10 +5161,10 @@
         <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N43" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -5188,10 +5188,10 @@
         <v>1.77</v>
       </c>
       <c r="V43" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="W43" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X43" t="n">
         <v>1.63</v>
@@ -5250,13 +5250,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="G44" t="n">
-        <v>3.88</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="I44" t="n">
         <v>1.03</v>
@@ -5271,10 +5271,10 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.33</v>
@@ -5298,10 +5298,10 @@
         <v>1.28</v>
       </c>
       <c r="V44" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X44" t="n">
         <v>1.91</v>
@@ -5360,13 +5360,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="G45" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
-        <v>5.45</v>
+        <v>5.2</v>
       </c>
       <c r="I45" t="n">
         <v>1.02</v>
@@ -5381,10 +5381,10 @@
         <v>4.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="N45" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O45" t="n">
         <v>1.29</v>
@@ -5408,10 +5408,10 @@
         <v>2.55</v>
       </c>
       <c r="V45" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="W45" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="X45" t="n">
         <v>1.71</v>
@@ -5473,10 +5473,10 @@
         <v>3.1</v>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H46" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I46" t="n">
         <v>1.03</v>
@@ -5491,7 +5491,7 @@
         <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="N46" t="n">
         <v>2.15</v>
@@ -5518,10 +5518,10 @@
         <v>1.39</v>
       </c>
       <c r="V46" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="X46" t="n">
         <v>1.62</v>
@@ -5583,55 +5583,55 @@
         <v>1.13</v>
       </c>
       <c r="G47" t="n">
-        <v>6.24</v>
+        <v>6.2</v>
       </c>
       <c r="H47" t="n">
-        <v>16.06</v>
+        <v>17</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="N47" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q47" t="n">
         <v>2.5</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="W47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X47" t="n">
         <v>2.72</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -5690,13 +5690,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
         <v>1.02</v>
@@ -5711,10 +5711,10 @@
         <v>3.4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="N48" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -5738,10 +5738,10 @@
         <v>1.9</v>
       </c>
       <c r="V48" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W48" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="X48" t="n">
         <v>1.49</v>
@@ -5762,10 +5762,10 @@
         <v>4</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF48" t="n">
         <v>1.53</v>
@@ -5800,13 +5800,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="G49" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H49" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="I49" t="n">
         <v>1.04</v>
@@ -5821,10 +5821,10 @@
         <v>3.82</v>
       </c>
       <c r="M49" t="n">
-        <v>1.71</v>
+        <v>1.84</v>
       </c>
       <c r="N49" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="O49" t="n">
         <v>1.33</v>
@@ -5848,10 +5848,10 @@
         <v>2.45</v>
       </c>
       <c r="V49" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="W49" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="X49" t="n">
         <v>1.68</v>
@@ -5872,7 +5872,7 @@
         <v>4.3</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE49" t="n">
         <v>1.35</v>
@@ -5910,13 +5910,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G50" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I50" t="n">
         <v>1.04</v>
@@ -5931,10 +5931,10 @@
         <v>2.83</v>
       </c>
       <c r="M50" t="n">
-        <v>2.16</v>
+        <v>2.03</v>
       </c>
       <c r="N50" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
@@ -5958,10 +5958,10 @@
         <v>1.81</v>
       </c>
       <c r="V50" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="W50" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="X50" t="n">
         <v>1.32</v>
@@ -5982,7 +5982,7 @@
         <v>2.89</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE50" t="n">
         <v>1.4</v>
@@ -6020,13 +6020,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="G51" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="H51" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
         <v>1.02</v>
@@ -6041,7 +6041,7 @@
         <v>5.7</v>
       </c>
       <c r="M51" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="N51" t="n">
         <v>2.9</v>
@@ -6068,10 +6068,10 @@
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="W51" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="X51" t="n">
         <v>2.56</v>
@@ -6083,19 +6083,19 @@
         <v>3.54</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF51" t="n">
         <v>1.57</v>
@@ -6130,10 +6130,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H52" t="n">
         <v>2.55</v>
@@ -6151,10 +6151,10 @@
         <v>3.14</v>
       </c>
       <c r="M52" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O52" t="n">
         <v>1.44</v>
@@ -6178,10 +6178,10 @@
         <v>1.46</v>
       </c>
       <c r="V52" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="W52" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
         <v>1.38</v>
@@ -6202,10 +6202,10 @@
         <v>2.1</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF52" t="n">
         <v>1.5</v>
@@ -6240,13 +6240,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="I53" t="n">
         <v>1.04</v>
@@ -6261,10 +6261,10 @@
         <v>3.6</v>
       </c>
       <c r="M53" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N53" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="O53" t="n">
         <v>1.36</v>
@@ -6288,10 +6288,10 @@
         <v>1.71</v>
       </c>
       <c r="V53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W53" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X53" t="n">
         <v>1.69</v>
@@ -6350,13 +6350,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="G54" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I54" t="n">
         <v>1.05</v>
@@ -6371,10 +6371,10 @@
         <v>3.25</v>
       </c>
       <c r="M54" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="N54" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O54" t="n">
         <v>1.39</v>
@@ -6398,10 +6398,10 @@
         <v>1.65</v>
       </c>
       <c r="V54" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="W54" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="X54" t="n">
         <v>1.48</v>
@@ -6463,10 +6463,10 @@
         <v>1.5</v>
       </c>
       <c r="G55" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H55" t="n">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="I55" t="n">
         <v>1.01</v>
@@ -6481,10 +6481,10 @@
         <v>3.7</v>
       </c>
       <c r="M55" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="N55" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
@@ -6508,10 +6508,10 @@
         <v>2.6</v>
       </c>
       <c r="V55" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="W55" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="X55" t="n">
         <v>1.5</v>
@@ -6570,13 +6570,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I56" t="n">
         <v>1.04</v>
@@ -6591,10 +6591,10 @@
         <v>3.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="N56" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O56" t="n">
         <v>1.36</v>
@@ -6618,10 +6618,10 @@
         <v>1.72</v>
       </c>
       <c r="V56" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="W56" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="X56" t="n">
         <v>1.63</v>
@@ -6680,13 +6680,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="I57" t="n">
         <v>1.03</v>
@@ -6728,10 +6728,10 @@
         <v>1.1</v>
       </c>
       <c r="V57" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W57" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="X57" t="n">
         <v>1.31</v>
@@ -6790,13 +6790,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="G58" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I58" t="n">
         <v>1.02</v>
@@ -6811,10 +6811,10 @@
         <v>4.3</v>
       </c>
       <c r="M58" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="N58" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
         <v>1.29</v>
@@ -6838,10 +6838,10 @@
         <v>3.4</v>
       </c>
       <c r="V58" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="W58" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="X58" t="n">
         <v>1.65</v>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H59" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I59" t="n">
         <v>1.05</v>
@@ -6921,10 +6921,10 @@
         <v>3.25</v>
       </c>
       <c r="M59" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="N59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O59" t="n">
         <v>1.39</v>
@@ -6948,10 +6948,10 @@
         <v>1.6</v>
       </c>
       <c r="V59" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="W59" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="X59" t="n">
         <v>1.44</v>
@@ -7010,13 +7010,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G60" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H60" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I60" t="n">
         <v>1.03</v>
@@ -7031,10 +7031,10 @@
         <v>3.3</v>
       </c>
       <c r="M60" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="N60" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="O60" t="n">
         <v>1.41</v>
@@ -7058,10 +7058,10 @@
         <v>1.72</v>
       </c>
       <c r="V60" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="W60" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="X60" t="n">
         <v>1.48</v>
@@ -7082,7 +7082,7 @@
         <v>2.28</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE60" t="n">
         <v>1.27</v>
@@ -7120,13 +7120,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.78</v>
+        <v>3.6</v>
       </c>
       <c r="G61" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="I61" t="n">
         <v>1.03</v>
@@ -7141,10 +7141,10 @@
         <v>3.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N61" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -7168,10 +7168,10 @@
         <v>1.25</v>
       </c>
       <c r="V61" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="X61" t="n">
         <v>1.3</v>
@@ -7230,13 +7230,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G62" t="n">
         <v>3.5</v>
       </c>
       <c r="H62" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
         <v>1.05</v>
@@ -7251,10 +7251,10 @@
         <v>3.25</v>
       </c>
       <c r="M62" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="N62" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
@@ -7278,10 +7278,10 @@
         <v>1.88</v>
       </c>
       <c r="V62" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="W62" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="X62" t="n">
         <v>1.84</v>
@@ -7340,13 +7340,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H63" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I63" t="n">
         <v>1.07</v>
@@ -7361,10 +7361,10 @@
         <v>3.2</v>
       </c>
       <c r="M63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="O63" t="n">
         <v>1.41</v>
@@ -7388,10 +7388,10 @@
         <v>1.47</v>
       </c>
       <c r="V63" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="W63" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="X63" t="n">
         <v>1.43</v>
@@ -7450,13 +7450,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="G64" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I64" t="n">
         <v>1.05</v>
@@ -7471,10 +7471,10 @@
         <v>3.4</v>
       </c>
       <c r="M64" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="N64" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O64" t="n">
         <v>1.4</v>
@@ -7498,10 +7498,10 @@
         <v>1.6</v>
       </c>
       <c r="V64" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="W64" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X64" t="n">
         <v>1.45</v>
@@ -7560,13 +7560,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G65" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
-        <v>4.62</v>
+        <v>4.3</v>
       </c>
       <c r="I65" t="n">
         <v>1.05</v>
@@ -7581,10 +7581,10 @@
         <v>3.3</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="N65" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="O65" t="n">
         <v>1.39</v>
@@ -7608,10 +7608,10 @@
         <v>2.1</v>
       </c>
       <c r="V65" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="W65" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="X65" t="n">
         <v>1.79</v>
@@ -7670,13 +7670,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H66" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -7718,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="W66" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="X66" t="n">
         <v>1.83</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="G67" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="I67" t="n">
         <v>1.06</v>
@@ -7801,10 +7801,10 @@
         <v>2.95</v>
       </c>
       <c r="M67" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="N67" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="O67" t="n">
         <v>1.44</v>
@@ -7828,10 +7828,10 @@
         <v>1.47</v>
       </c>
       <c r="V67" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="W67" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X67" t="n">
         <v>1.46</v>
@@ -7890,13 +7890,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G68" t="n">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
-        <v>4.54</v>
+        <v>4.4</v>
       </c>
       <c r="I68" t="n">
         <v>1.05</v>
@@ -7911,10 +7911,10 @@
         <v>3.3</v>
       </c>
       <c r="M68" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="N68" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="O68" t="n">
         <v>1.4</v>
@@ -7938,10 +7938,10 @@
         <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="W68" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="X68" t="n">
         <v>1.6</v>
@@ -8000,13 +8000,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G69" t="n">
         <v>3.1</v>
       </c>
       <c r="H69" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I69" t="n">
         <v>1.07</v>
@@ -8024,7 +8024,7 @@
         <v>2.15</v>
       </c>
       <c r="N69" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O69" t="n">
         <v>1.48</v>
@@ -8048,7 +8048,7 @@
         <v>1.44</v>
       </c>
       <c r="V69" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W69" t="n">
         <v>1.07</v>
@@ -8110,13 +8110,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G70" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="I70" t="n">
         <v>1.06</v>
@@ -8131,10 +8131,10 @@
         <v>3.1</v>
       </c>
       <c r="M70" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="O70" t="n">
         <v>1.42</v>
@@ -8158,10 +8158,10 @@
         <v>1.35</v>
       </c>
       <c r="V70" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="W70" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="X70" t="n">
         <v>1.23</v>
@@ -8182,7 +8182,7 @@
         <v>1.75</v>
       </c>
       <c r="AD70" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE70" t="n">
         <v>1.35</v>
@@ -8220,13 +8220,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G71" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="H71" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="I71" t="n">
         <v>1.02</v>
@@ -8241,10 +8241,10 @@
         <v>3.55</v>
       </c>
       <c r="M71" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="N71" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O71" t="n">
         <v>1.33</v>
@@ -8268,10 +8268,10 @@
         <v>1.87</v>
       </c>
       <c r="V71" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="W71" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="X71" t="n">
         <v>1.43</v>
@@ -8330,13 +8330,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G72" t="n">
-        <v>3.22</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I72" t="n">
         <v>1.06</v>
@@ -8351,10 +8351,10 @@
         <v>2.85</v>
       </c>
       <c r="M72" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="N72" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O72" t="n">
         <v>1.44</v>
@@ -8378,10 +8378,10 @@
         <v>1.74</v>
       </c>
       <c r="V72" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="W72" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="X72" t="n">
         <v>1.21</v>
@@ -8440,13 +8440,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="G73" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
-        <v>4.28</v>
+        <v>4.5</v>
       </c>
       <c r="I73" t="n">
         <v>1.06</v>
@@ -8461,10 +8461,10 @@
         <v>2.85</v>
       </c>
       <c r="M73" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N73" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="O73" t="n">
         <v>1.44</v>
@@ -8488,10 +8488,10 @@
         <v>1.98</v>
       </c>
       <c r="V73" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="W73" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="X73" t="n">
         <v>1.58</v>
@@ -8550,13 +8550,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H74" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I74" t="n">
         <v>1.08</v>
@@ -8571,10 +8571,10 @@
         <v>2.75</v>
       </c>
       <c r="M74" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N74" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O74" t="n">
         <v>1.44</v>
@@ -8598,10 +8598,10 @@
         <v>1.73</v>
       </c>
       <c r="V74" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="W74" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X74" t="n">
         <v>1.48</v>
@@ -8660,13 +8660,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="G75" t="n">
-        <v>3.42</v>
+        <v>3.3</v>
       </c>
       <c r="H75" t="n">
-        <v>3.66</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
         <v>1.07</v>
@@ -8708,10 +8708,10 @@
         <v>1.85</v>
       </c>
       <c r="V75" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W75" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="X75" t="n">
         <v>1.46</v>
@@ -8770,13 +8770,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="G76" t="n">
-        <v>3.84</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I76" t="n">
         <v>1.08</v>
@@ -8794,7 +8794,7 @@
         <v>2.15</v>
       </c>
       <c r="N76" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O76" t="n">
         <v>1.4</v>
@@ -8818,10 +8818,10 @@
         <v>2.2</v>
       </c>
       <c r="V76" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="W76" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="X76" t="n">
         <v>1.84</v>
@@ -8880,13 +8880,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G77" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H77" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I77" t="n">
         <v>1.07</v>
@@ -8901,10 +8901,10 @@
         <v>2.85</v>
       </c>
       <c r="M77" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N77" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="O77" t="n">
         <v>1.47</v>
@@ -8928,10 +8928,10 @@
         <v>1.36</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W77" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="X77" t="n">
         <v>1.65</v>
@@ -8990,13 +8990,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H78" t="n">
-        <v>2.65</v>
+        <v>2.43</v>
       </c>
       <c r="I78" t="n">
         <v>1.08</v>
@@ -9014,7 +9014,7 @@
         <v>2.2</v>
       </c>
       <c r="N78" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O78" t="n">
         <v>1.49</v>
@@ -9038,10 +9038,10 @@
         <v>1.37</v>
       </c>
       <c r="V78" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W78" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X78" t="n">
         <v>1.27</v>
@@ -9103,10 +9103,10 @@
         <v>2.25</v>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I79" t="n">
         <v>1.08</v>
@@ -9124,7 +9124,7 @@
         <v>2.3</v>
       </c>
       <c r="N79" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O79" t="n">
         <v>1.49</v>
@@ -9148,10 +9148,10 @@
         <v>1.65</v>
       </c>
       <c r="V79" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="W79" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="X79" t="n">
         <v>1.43</v>
@@ -9210,13 +9210,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="G80" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H80" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="I80" t="n">
         <v>1.07</v>
@@ -9234,7 +9234,7 @@
         <v>2.2</v>
       </c>
       <c r="N80" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -9258,10 +9258,10 @@
         <v>1.66</v>
       </c>
       <c r="V80" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="W80" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="X80" t="n">
         <v>1.86</v>
@@ -9320,13 +9320,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="G81" t="n">
-        <v>3.76</v>
+        <v>4.1</v>
       </c>
       <c r="H81" t="n">
-        <v>4.76</v>
+        <v>5.8</v>
       </c>
       <c r="I81" t="n">
         <v>1.04</v>
@@ -9368,10 +9368,10 @@
         <v>2.35</v>
       </c>
       <c r="V81" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="W81" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="X81" t="n">
         <v>1.59</v>
@@ -9430,13 +9430,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2.11</v>
+        <v>2.21</v>
       </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H82" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I82" t="n">
         <v>1.07</v>
@@ -9451,10 +9451,10 @@
         <v>3</v>
       </c>
       <c r="M82" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N82" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O82" t="n">
         <v>1.45</v>
@@ -9478,10 +9478,10 @@
         <v>1.78</v>
       </c>
       <c r="V82" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="W82" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X82" t="n">
         <v>1.77</v>
@@ -9540,13 +9540,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="G83" t="n">
         <v>3.3</v>
       </c>
       <c r="H83" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I83" t="n">
         <v>1.07</v>
@@ -9561,7 +9561,7 @@
         <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="N83" t="n">
         <v>1.72</v>
@@ -9588,10 +9588,10 @@
         <v>1.57</v>
       </c>
       <c r="V83" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="W83" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="X83" t="n">
         <v>1.44</v>
@@ -9650,13 +9650,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="G84" t="n">
         <v>3.25</v>
       </c>
       <c r="H84" t="n">
-        <v>2.53</v>
+        <v>2.65</v>
       </c>
       <c r="I84" t="n">
         <v>1.08</v>
@@ -9671,10 +9671,10 @@
         <v>2.9</v>
       </c>
       <c r="M84" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="N84" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="O84" t="n">
         <v>1.47</v>
@@ -9698,10 +9698,10 @@
         <v>1.44</v>
       </c>
       <c r="V84" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W84" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X84" t="n">
         <v>1.3</v>
@@ -9760,13 +9760,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="G85" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I85" t="n">
         <v>1.06</v>
@@ -9808,10 +9808,10 @@
         <v>1.88</v>
       </c>
       <c r="V85" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="W85" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="X85" t="n">
         <v>1.57</v>
@@ -9870,13 +9870,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="G86" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
-        <v>3.82</v>
+        <v>3.65</v>
       </c>
       <c r="I86" t="n">
         <v>1.06</v>
@@ -9891,10 +9891,10 @@
         <v>3.6</v>
       </c>
       <c r="M86" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="N86" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O86" t="n">
         <v>1.4</v>
@@ -9918,10 +9918,10 @@
         <v>1.89</v>
       </c>
       <c r="V86" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="W86" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="X86" t="n">
         <v>1.48</v>
@@ -9983,10 +9983,10 @@
         <v>1.94</v>
       </c>
       <c r="G87" t="n">
-        <v>3.88</v>
+        <v>3.6</v>
       </c>
       <c r="H87" t="n">
-        <v>4.12</v>
+        <v>3.9</v>
       </c>
       <c r="I87" t="n">
         <v>1.06</v>
@@ -10004,7 +10004,7 @@
         <v>1.87</v>
       </c>
       <c r="N87" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="O87" t="n">
         <v>1.4</v>
@@ -10028,10 +10028,10 @@
         <v>1.88</v>
       </c>
       <c r="V87" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W87" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="X87" t="n">
         <v>1.45</v>
@@ -10090,13 +10090,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="G88" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="H88" t="n">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I88" t="n">
         <v>1.03</v>
@@ -10111,10 +10111,10 @@
         <v>4.4</v>
       </c>
       <c r="M88" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="N88" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="O88" t="n">
         <v>1.3</v>
@@ -10138,10 +10138,10 @@
         <v>3.1</v>
       </c>
       <c r="V88" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="W88" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X88" t="n">
         <v>1.86</v>
@@ -10200,13 +10200,13 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="G89" t="n">
-        <v>4.84</v>
+        <v>4.6</v>
       </c>
       <c r="H89" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="I89" t="n">
         <v>1.05</v>
@@ -10248,10 +10248,10 @@
         <v>2.9</v>
       </c>
       <c r="V89" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="W89" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X89" t="n">
         <v>1.88</v>
@@ -10310,13 +10310,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4.72</v>
+        <v>4.4</v>
       </c>
       <c r="G90" t="n">
-        <v>4.04</v>
+        <v>3.85</v>
       </c>
       <c r="H90" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I90" t="n">
         <v>1.04</v>
@@ -10331,10 +10331,10 @@
         <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="N90" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="O90" t="n">
         <v>1.33</v>
@@ -10358,10 +10358,10 @@
         <v>1.23</v>
       </c>
       <c r="V90" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="W90" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="X90" t="n">
         <v>1.35</v>
@@ -10420,13 +10420,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="G91" t="n">
         <v>3.25</v>
       </c>
       <c r="H91" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="I91" t="n">
         <v>1.07</v>
@@ -10441,10 +10441,10 @@
         <v>2.85</v>
       </c>
       <c r="M91" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="N91" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O91" t="n">
         <v>1.44</v>
@@ -10468,10 +10468,10 @@
         <v>1.65</v>
       </c>
       <c r="V91" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="W91" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="X91" t="n">
         <v>1.47</v>
@@ -10504,7 +10504,7 @@
         <v>3.5</v>
       </c>
       <c r="AH91" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="92">
@@ -10530,13 +10530,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="G92" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H92" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="I92" t="n">
         <v>1.12</v>
@@ -10551,10 +10551,10 @@
         <v>2.5</v>
       </c>
       <c r="M92" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N92" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O92" t="n">
         <v>1.53</v>
@@ -10578,10 +10578,10 @@
         <v>1.67</v>
       </c>
       <c r="V92" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W92" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="X92" t="n">
         <v>1.18</v>
@@ -10640,13 +10640,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H93" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="I93" t="n">
         <v>1.12</v>
@@ -10655,10 +10655,10 @@
         <v>5.5</v>
       </c>
       <c r="K93" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="L93" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="M93" t="n">
         <v>2.42</v>
@@ -10688,10 +10688,10 @@
         <v>1.62</v>
       </c>
       <c r="V93" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="W93" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="X93" t="n">
         <v>1.39</v>
@@ -10750,13 +10750,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4.86</v>
+        <v>4.6</v>
       </c>
       <c r="G94" t="n">
-        <v>4.08</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="I94" t="n">
         <v>1.05</v>
@@ -10771,7 +10771,7 @@
         <v>3.6</v>
       </c>
       <c r="M94" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="N94" t="n">
         <v>2</v>
@@ -10798,10 +10798,10 @@
         <v>1.18</v>
       </c>
       <c r="V94" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="W94" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="X94" t="n">
         <v>1.4</v>
@@ -10860,10 +10860,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="G95" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H95" t="n">
         <v>2.44</v>
@@ -10881,10 +10881,10 @@
         <v>3.15</v>
       </c>
       <c r="M95" t="n">
-        <v>2.07</v>
+        <v>2.21</v>
       </c>
       <c r="N95" t="n">
-        <v>1.72</v>
+        <v>1.59</v>
       </c>
       <c r="O95" t="n">
         <v>1.45</v>
@@ -10908,10 +10908,10 @@
         <v>1.4</v>
       </c>
       <c r="V95" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="W95" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X95" t="n">
         <v>1.63</v>
@@ -10970,13 +10970,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H96" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
         <v>1.1</v>
@@ -10991,10 +10991,10 @@
         <v>2.62</v>
       </c>
       <c r="M96" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="N96" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O96" t="n">
         <v>1.51</v>
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="W96" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="X96" t="n">
         <v>1.22</v>
@@ -11033,13 +11033,13 @@
         <v>2.39</v>
       </c>
       <c r="AA96" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB96" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC96" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD96" t="n">
         <v>1.24</v>
@@ -11080,13 +11080,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H97" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="I97" t="n">
         <v>1.08</v>
@@ -11101,10 +11101,10 @@
         <v>2.9</v>
       </c>
       <c r="M97" t="n">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="N97" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="O97" t="n">
         <v>1.47</v>
@@ -11128,10 +11128,10 @@
         <v>1.53</v>
       </c>
       <c r="V97" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="W97" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="X97" t="n">
         <v>1.71</v>
@@ -11143,28 +11143,28 @@
         <v>3.13</v>
       </c>
       <c r="AA97" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB97" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC97" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD97" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE97" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF97" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AG97" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH97" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="98">
@@ -11190,13 +11190,13 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H98" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="I98" t="n">
         <v>1.06</v>
@@ -11211,10 +11211,10 @@
         <v>3.3</v>
       </c>
       <c r="M98" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="N98" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O98" t="n">
         <v>1.4</v>
@@ -11238,10 +11238,10 @@
         <v>2.05</v>
       </c>
       <c r="V98" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W98" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="X98" t="n">
         <v>1.94</v>
@@ -11253,28 +11253,28 @@
         <v>3.54</v>
       </c>
       <c r="AA98" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AC98" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AD98" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE98" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG98" t="n">
         <v>2</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="99">
@@ -11300,13 +11300,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="G99" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I99" t="n">
         <v>1.01</v>
@@ -11348,10 +11348,10 @@
         <v>4.5</v>
       </c>
       <c r="V99" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="W99" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="X99" t="n">
         <v>2.04</v>
@@ -11410,13 +11410,13 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="G100" t="n">
         <v>3.45</v>
       </c>
       <c r="H100" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I100" t="n">
         <v>1.05</v>
@@ -11431,10 +11431,10 @@
         <v>3.82</v>
       </c>
       <c r="M100" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="N100" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O100" t="n">
         <v>1.36</v>
@@ -11458,10 +11458,10 @@
         <v>1.68</v>
       </c>
       <c r="V100" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="W100" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="X100" t="n">
         <v>1.81</v>
@@ -11473,16 +11473,16 @@
         <v>3.24</v>
       </c>
       <c r="AA100" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB100" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC100" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AD100" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE100" t="n">
         <v>1.62</v>
@@ -11494,7 +11494,7 @@
         <v>2.5</v>
       </c>
       <c r="AH100" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="101">
@@ -11520,13 +11520,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="G101" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H101" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I101" t="n">
         <v>1.05</v>
@@ -11541,10 +11541,10 @@
         <v>3.75</v>
       </c>
       <c r="M101" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="N101" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O101" t="n">
         <v>1.35</v>
@@ -11568,7 +11568,7 @@
         <v>1.8</v>
       </c>
       <c r="V101" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="W101" t="n">
         <v>1</v>
@@ -11592,19 +11592,19 @@
         <v>2.91</v>
       </c>
       <c r="AD101" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE101" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF101" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG101" t="n">
         <v>1.95</v>
       </c>
       <c r="AH101" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="102">
@@ -11630,52 +11630,52 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
       </c>
       <c r="H102" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M102" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="N102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
         <v>2.1</v>
       </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>1.83</v>
-      </c>
       <c r="R102" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="V102" t="n">
         <v>1.33</v>
@@ -11693,28 +11693,28 @@
         <v>3.1</v>
       </c>
       <c r="AA102" t="n">
-        <v>3.34</v>
+        <v>3.74</v>
       </c>
       <c r="AB102" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC102" t="n">
         <v>1.45</v>
       </c>
       <c r="AD102" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE102" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF102" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AG102" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH102" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="103">
@@ -11749,49 +11749,49 @@
         <v>1.99</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M103" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N103" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V103" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="W103" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="X103" t="n">
         <v>1.75</v>
@@ -11850,13 +11850,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G104" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="H104" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I104" t="n">
         <v>1.03</v>
@@ -11871,7 +11871,7 @@
         <v>4.33</v>
       </c>
       <c r="M104" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N104" t="n">
         <v>2.18</v>
@@ -11898,10 +11898,10 @@
         <v>1.29</v>
       </c>
       <c r="V104" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="W104" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X104" t="n">
         <v>1.6</v>
@@ -11960,13 +11960,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H105" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="I105" t="n">
         <v>1.02</v>
@@ -11981,10 +11981,10 @@
         <v>5.05</v>
       </c>
       <c r="M105" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="N105" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="O105" t="n">
         <v>1.27</v>
@@ -12008,10 +12008,10 @@
         <v>1.07</v>
       </c>
       <c r="V105" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="W105" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="X105" t="n">
         <v>1.4</v>
@@ -12023,16 +12023,16 @@
         <v>3.33</v>
       </c>
       <c r="AA105" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB105" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC105" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AD105" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE105" t="n">
         <v>1.29</v>
@@ -12070,13 +12070,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="G106" t="n">
-        <v>4.54</v>
+        <v>4.4</v>
       </c>
       <c r="H106" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I106" t="n">
         <v>1.04</v>
@@ -12118,10 +12118,10 @@
         <v>2.65</v>
       </c>
       <c r="V106" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="W106" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X106" t="n">
         <v>1.75</v>
@@ -12180,13 +12180,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="G107" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="H107" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I107" t="n">
         <v>1.08</v>
@@ -12228,10 +12228,10 @@
         <v>1.2</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="W107" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X107" t="n">
         <v>1.34</v>
@@ -12290,13 +12290,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="G108" t="n">
-        <v>3.56</v>
+        <v>3.65</v>
       </c>
       <c r="H108" t="n">
-        <v>2.15</v>
+        <v>1.86</v>
       </c>
       <c r="I108" t="n">
         <v>1.04</v>
@@ -12311,10 +12311,10 @@
         <v>3.6</v>
       </c>
       <c r="M108" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="N108" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="O108" t="n">
         <v>1.36</v>
@@ -12338,10 +12338,10 @@
         <v>1.23</v>
       </c>
       <c r="V108" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="W108" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="X108" t="n">
         <v>1.17</v>
@@ -12400,13 +12400,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H109" t="n">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="I109" t="n">
         <v>1.04</v>
@@ -12421,10 +12421,10 @@
         <v>3.75</v>
       </c>
       <c r="M109" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="N109" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="O109" t="n">
         <v>1.36</v>
@@ -12448,10 +12448,10 @@
         <v>1.42</v>
       </c>
       <c r="V109" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="W109" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X109" t="n">
         <v>1.65</v>
@@ -12510,13 +12510,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I110" t="n">
         <v>1.09</v>
@@ -12531,10 +12531,10 @@
         <v>2.6</v>
       </c>
       <c r="M110" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N110" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="O110" t="n">
         <v>1.5</v>
@@ -12558,10 +12558,10 @@
         <v>1.73</v>
       </c>
       <c r="V110" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="W110" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="X110" t="n">
         <v>1.89</v>
@@ -12620,13 +12620,13 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="G111" t="n">
-        <v>4.06</v>
+        <v>4.2</v>
       </c>
       <c r="H111" t="n">
-        <v>4.18</v>
+        <v>5</v>
       </c>
       <c r="I111" t="n">
         <v>1.02</v>
@@ -12641,10 +12641,10 @@
         <v>5</v>
       </c>
       <c r="M111" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="N111" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O111" t="n">
         <v>1.29</v>
@@ -12668,10 +12668,10 @@
         <v>2.37</v>
       </c>
       <c r="V111" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W111" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="X111" t="n">
         <v>1.66</v>
@@ -12730,10 +12730,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="G112" t="n">
-        <v>4.24</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
         <v>9</v>
@@ -12751,10 +12751,10 @@
         <v>2.8</v>
       </c>
       <c r="M112" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="N112" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O112" t="n">
         <v>1.5</v>
@@ -12778,10 +12778,10 @@
         <v>2.8</v>
       </c>
       <c r="V112" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="W112" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="X112" t="n">
         <v>1.8</v>
@@ -12840,13 +12840,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="G113" t="n">
-        <v>3.98</v>
+        <v>3.7</v>
       </c>
       <c r="H113" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="I113" t="n">
         <v>1.06</v>
@@ -12864,7 +12864,7 @@
         <v>2</v>
       </c>
       <c r="N113" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="O113" t="n">
         <v>1.4</v>
@@ -12888,10 +12888,10 @@
         <v>2.3</v>
       </c>
       <c r="V113" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="W113" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X113" t="n">
         <v>2.09</v>
@@ -12950,13 +12950,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="G114" t="n">
-        <v>4.64</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="I114" t="n">
         <v>1.01</v>
@@ -13001,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="W114" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="X114" t="n">
         <v>1.61</v>
@@ -13060,13 +13060,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4.34</v>
+        <v>4.2</v>
       </c>
       <c r="G115" t="n">
-        <v>4.06</v>
+        <v>3.75</v>
       </c>
       <c r="H115" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I115" t="n">
         <v>1.03</v>
@@ -13081,10 +13081,10 @@
         <v>4.2</v>
       </c>
       <c r="M115" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N115" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O115" t="n">
         <v>1.32</v>
@@ -13170,13 +13170,13 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="G116" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I116" t="n">
         <v>1.06</v>
@@ -13185,16 +13185,16 @@
         <v>6.75</v>
       </c>
       <c r="K116" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="L116" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="M116" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="N116" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O116" t="n">
         <v>1.51</v>
@@ -13242,19 +13242,19 @@
         <v>3.02</v>
       </c>
       <c r="AD116" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE116" t="n">
         <v>1.83</v>
       </c>
       <c r="AF116" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AG116" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH116" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="117">
@@ -13280,13 +13280,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="G117" t="n">
-        <v>6.95</v>
+        <v>6.5</v>
       </c>
       <c r="H117" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="I117" t="n">
         <v>1.01</v>
@@ -13301,10 +13301,10 @@
         <v>5</v>
       </c>
       <c r="M117" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="N117" t="n">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="O117" t="n">
         <v>1.24</v>
@@ -13343,16 +13343,16 @@
         <v>4.08</v>
       </c>
       <c r="AA117" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AB117" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC117" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="AD117" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE117" t="n">
         <v>1.31</v>
@@ -13390,13 +13390,13 @@
         </is>
       </c>
       <c r="F118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G118" t="n">
         <v>3.25</v>
       </c>
-      <c r="G118" t="n">
-        <v>3.3</v>
-      </c>
       <c r="H118" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="I118" t="n">
         <v>1.05</v>
@@ -13411,10 +13411,10 @@
         <v>3.6</v>
       </c>
       <c r="M118" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="N118" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="O118" t="n">
         <v>1.37</v>
@@ -13462,19 +13462,19 @@
         <v>1.85</v>
       </c>
       <c r="AD118" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE118" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF118" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG118" t="n">
         <v>1.95</v>
       </c>
       <c r="AH118" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="119">
@@ -13503,10 +13503,10 @@
         <v>2.6</v>
       </c>
       <c r="G119" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H119" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="I119" t="n">
         <v>1.04</v>
@@ -13521,10 +13521,10 @@
         <v>3.14</v>
       </c>
       <c r="M119" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="N119" t="n">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="O119" t="n">
         <v>1.43</v>
@@ -13610,13 +13610,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="G120" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="H120" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="I120" t="n">
         <v>1.05</v>
@@ -13720,13 +13720,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2.59</v>
+        <v>2.75</v>
       </c>
       <c r="G121" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H121" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="I121" t="n">
         <v>1.02</v>
@@ -13783,13 +13783,13 @@
         <v>3.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB121" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC121" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AD121" t="n">
         <v>0</v>
@@ -13830,13 +13830,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H122" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H122" t="n">
-        <v>3.4</v>
       </c>
       <c r="I122" t="n">
         <v>1.05</v>
@@ -13851,10 +13851,10 @@
         <v>3.5</v>
       </c>
       <c r="M122" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="N122" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="O122" t="n">
         <v>1.38</v>
@@ -13940,13 +13940,13 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H123" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I123" t="n">
         <v>1.03</v>
@@ -13961,10 +13961,10 @@
         <v>4.33</v>
       </c>
       <c r="M123" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="N123" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O123" t="n">
         <v>1.29</v>
@@ -14050,13 +14050,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="G124" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H124" t="n">
-        <v>4.32</v>
+        <v>4.5</v>
       </c>
       <c r="I124" t="n">
         <v>1.04</v>
@@ -14071,10 +14071,10 @@
         <v>3.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="N124" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="O124" t="n">
         <v>1.36</v>
@@ -14160,13 +14160,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="G125" t="n">
-        <v>3.88</v>
+        <v>3.6</v>
       </c>
       <c r="H125" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
         <v>1.03</v>
@@ -14184,7 +14184,7 @@
         <v>1.6</v>
       </c>
       <c r="N125" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="O125" t="n">
         <v>1.29</v>
@@ -14270,7 +14270,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="G126" t="n">
         <v>3.3</v>
@@ -14291,10 +14291,10 @@
         <v>3.52</v>
       </c>
       <c r="M126" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="N126" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O126" t="n">
         <v>1.38</v>
@@ -14380,13 +14380,13 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G127" t="n">
         <v>3.4</v>
       </c>
       <c r="H127" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
         <v>1.04</v>
@@ -14401,10 +14401,10 @@
         <v>3.6</v>
       </c>
       <c r="M127" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="N127" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O127" t="n">
         <v>1.39</v>
@@ -14490,13 +14490,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="G128" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="H128" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I128" t="n">
         <v>1.12</v>
@@ -14505,10 +14505,10 @@
         <v>5.5</v>
       </c>
       <c r="K128" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="L128" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M128" t="n">
         <v>2.53</v>
@@ -14600,13 +14600,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G129" t="n">
         <v>3.1</v>
       </c>
       <c r="H129" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I129" t="n">
         <v>1.09</v>
@@ -14615,16 +14615,16 @@
         <v>8</v>
       </c>
       <c r="K129" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="L129" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M129" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N129" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="O129" t="n">
         <v>1.53</v>
@@ -14924,13 +14924,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="G132" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="H132" t="n">
-        <v>7.5</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="I132" t="n">
         <v>1.04</v>
@@ -14945,10 +14945,10 @@
         <v>3.3</v>
       </c>
       <c r="M132" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="N132" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O132" t="n">
         <v>1.4</v>
@@ -14987,28 +14987,28 @@
         <v>0</v>
       </c>
       <c r="AA132" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB132" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC132" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD132" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE132" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AF132" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AG132" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH132" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="133">
@@ -15034,13 +15034,13 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G133" t="n">
-        <v>2.99</v>
+        <v>2.9</v>
       </c>
       <c r="H133" t="n">
-        <v>2.71</v>
+        <v>2.8</v>
       </c>
       <c r="I133" t="n">
         <v>1.1</v>
@@ -15055,10 +15055,10 @@
         <v>2.62</v>
       </c>
       <c r="M133" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="N133" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="O133" t="n">
         <v>1.5</v>
@@ -15097,13 +15097,13 @@
         <v>2.44</v>
       </c>
       <c r="AA133" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB133" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC133" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD133" t="n">
         <v>1.24</v>
@@ -15142,13 +15142,13 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>4.55</v>
+        <v>5.8</v>
       </c>
       <c r="G134" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="H134" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -15163,10 +15163,10 @@
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N134" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -15252,13 +15252,13 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="G135" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="I135" t="n">
         <v>1.06</v>
@@ -15273,10 +15273,10 @@
         <v>3.4</v>
       </c>
       <c r="M135" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="N135" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O135" t="n">
         <v>1.36</v>
@@ -15432,19 +15432,19 @@
         <v>1.64</v>
       </c>
       <c r="AD136" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE136" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF136" t="n">
         <v>1.9</v>
       </c>
       <c r="AG136" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH136" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="137">
@@ -15468,13 +15468,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="G137" t="n">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="H137" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="I137" t="n">
         <v>1.08</v>
@@ -15531,28 +15531,28 @@
         <v>0</v>
       </c>
       <c r="AA137" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AB137" t="n">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="AC137" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD137" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE137" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF137" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG137" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH137" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="138">
@@ -15576,13 +15576,13 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="G138" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H138" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -15689,10 +15689,10 @@
         <v>2.75</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="I139" t="n">
         <v>1.07</v>
@@ -15707,10 +15707,10 @@
         <v>3</v>
       </c>
       <c r="M139" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="N139" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="O139" t="n">
         <v>1.4</v>
